--- a/public/XSWorld_sample_data_food.xlsx
+++ b/public/XSWorld_sample_data_food.xlsx
@@ -53,13 +53,7 @@
     <t>Product No</t>
   </si>
   <si>
-    <t>New Drink 2</t>
-  </si>
-  <si>
     <t>category</t>
-  </si>
-  <si>
-    <t>Spirits</t>
   </si>
   <si>
     <t>is_available
@@ -90,16 +84,22 @@
     <t>hello description 5</t>
   </si>
   <si>
-    <t>New Drink 3</t>
-  </si>
-  <si>
-    <t>New Drink 4</t>
-  </si>
-  <si>
-    <t>New Drink 5</t>
-  </si>
-  <si>
-    <t>New Drink 6</t>
+    <t>New Food 2</t>
+  </si>
+  <si>
+    <t>Entree</t>
+  </si>
+  <si>
+    <t>New Food 3</t>
+  </si>
+  <si>
+    <t>New Food 4</t>
+  </si>
+  <si>
+    <t>New Food 5</t>
+  </si>
+  <si>
+    <t>New Food 6</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A2" sqref="A2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -470,7 +470,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -482,13 +482,13 @@
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -496,10 +496,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>120</v>
@@ -508,7 +508,7 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -528,7 +528,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D3">
         <v>110</v>
@@ -537,7 +537,7 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -557,7 +557,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>110</v>
@@ -566,7 +566,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>110</v>
@@ -595,7 +595,7 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -615,7 +615,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>110</v>
@@ -624,7 +624,7 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G6">
         <v>0</v>
